--- a/Documentation/Keyword_Search_mitBenefits.xlsx
+++ b/Documentation/Keyword_Search_mitBenefits.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Suchstring</t>
   </si>
@@ -39,70 +39,210 @@
     <t>Kommentar</t>
   </si>
   <si>
-    <t>http://www.emeraldinsight.com/search.htm?ct=jnl&amp;st1=Augmented+Reality&amp;fd1=abs&amp;mm1=all&amp;bl2=or&amp;st2=Augmented+Reality&amp;fd2=art&amp;mm2=all&amp;bl3=or&amp;st3=Augmented+Reality&amp;fd3=kwd&amp;mm3=all&amp;ys=all&amp;ye=all&amp;at=all&amp;ec=1&amp;bf=1&amp;cd=ac&amp;search=Search&amp;nolog=763502&amp;displayno=20&amp;ct=jnl&amp;st1=Augmented+Reality&amp;fd1=abs&amp;mm1=all&amp;bl2=or&amp;st2=Augmented+Reality&amp;fd2=art&amp;mm2=all&amp;bl3=or&amp;st3=Augmented+Reality&amp;fd3=kwd&amp;mm3=all&amp;ys=all&amp;ye=all&amp;at=all&amp;ec=1&amp;bf=1&amp;cd=ac&amp;search=Search&amp;nolog=763502&amp;displayno=20&amp;view=normal</t>
-  </si>
-  <si>
-    <t>"Augmented Reality" in Abstract, Title und Keywords (34 Ergebnisse, 4 passten)</t>
-  </si>
-  <si>
     <t>ProQuest</t>
   </si>
   <si>
-    <t>Emerald Insight</t>
-  </si>
-  <si>
-    <t>TI (    "Augmented Reality" AND "Benefit*" AND  ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") ) OR AB (    "Augmented Reality" AND "Benefit*" AND  ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") ) OR KW (    "Augmented Reality" AND "Benefit*" AND  ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") )</t>
-  </si>
-  <si>
-    <t>http://search.proquest.com/results/B5DF59575C934F61PQ?accountid=10218</t>
-  </si>
-  <si>
     <t>EBSCO</t>
   </si>
   <si>
-    <t>TI (  "Augmented Reality" AND "Benefit*" AND ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") ) OR AB (  "Augmented Reality" AND "Benefit*" AND ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") ) OR KW (  "Augmented Reality" AND "Benefit*" AND ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") )</t>
-  </si>
-  <si>
-    <t>http://web.a.ebscohost.com/ehost/results?sid=f7e6b8d2-a03f-481c-9e04-b8475fcaf3b3%40sessionmgr4004&amp;vid=5&amp;hid=4214&amp;bquery=TI+%28%22Augmented+Reality%22+AND+%22Benefit*%22+AND+%28%22University*%22+OR+%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22%29%29+OR+AB+%28%22Augmented+Reality%22+AND+%22Benefit*%22+AND+%28%22University*%22+OR+%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22%29%29+OR+KW+%28%22Augmented+Reality%22+AND+%22Benefit*%22+AND+%28%22University*%22+OR+%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22%29%29&amp;bdata=JmRiPWE5aCZkYj1idGgmZGI9bHhoJmNsaTA9UlYmY2x2MD1ZJnR5cGU9MCZzaXRlPWVob3N0LWxpdmU%3d</t>
-  </si>
-  <si>
     <t>ACM</t>
   </si>
   <si>
     <t>AISeL</t>
   </si>
   <si>
-    <t xml:space="preserve">( title: ( "Augmented Reality" AND "Benefit*" AND ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") ) OR abstract: ( "Augmented Reality" AND "Benefit*" AND ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*") ) OR subject: ( "Augmented Reality" AND "Benefit*" AND  ( "University*" OR "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*")  ) ) </t>
-  </si>
-  <si>
-    <t>http://aisel.aisnet.org/do/search/?q=(%20title%3A%20(%20%22Augmented%20Reality%22%20AND%20%22Benefit*%22%20AND%20(%20%22University*%22%20OR%20%22College*%22%20OR%20%22School*%22%20OR%20%22Teach*%22%20OR%20%22Learn*%22%20OR%20%22Educat*%22%20)%20)%20OR%20abstract%3A%20(%20%22Augmented%20Reality%22%20AND%20%22Benefit*%22%20AND%20(%20%22University*%22%20OR%20%22College*%22%20OR%20%22School*%22%20OR%20%22Teach*%22%20OR%20%22Learn*%22%20OR%20%22Educat*%22%20)%20)%20OR%20subject%3A%20(%20%22Augmented%20Reality%22%20AND%20%22Benefit*%22%20AND%20(%20%22University*%22%20OR%20%22College*%22%20OR%20%22School*%22%20OR%20%22Teach*%22%20OR%20%22Learn*%22%20OR%20%22Educat*%22%20)%20)%20)&amp;start=0&amp;context=509156</t>
-  </si>
-  <si>
     <t>IEEE</t>
   </si>
   <si>
     <t>ScienceDirect</t>
   </si>
   <si>
-    <t>Noch nicht exportiert</t>
-  </si>
-  <si>
-    <t>http://ieeexplore.ieee.org/search/searchresult.jsp?matchBoolean%3Dtrue%26rowsPerPage%3D100%26searchField%3DSearch_All_Text%26queryText%3D%28%28%0A%09%28%0A%09%09p_Title%3A+%22Augmented+Reality%22+AND+%28%22Benefit%22+OR+%22Benefits%22%29+OR%0A%09%09p_Abstract%3A+%22Augmented+Reality%22+AND+%28%22Benefit%22+OR+%22Benefits%22%29+OR+%0A%09%09p_Author_Terms%3A+%22Augmented+Reality%22+AND+%28%22Benefit%22+OR+%22Benefits%22%29%0A%09%29+AND+%0A%09%28%0A%09%09p_Title%3A+%22Learn*%22+OR+%0A%09%09p_Title%3A+%22Teach*%22+OR+%0A%09%09p_Title%3A+%22University%22+OR+%0A%09%09p_Title%3A+%22College%22+OR%0A%09%09p_Title%3A+%22Education%22+OR+%0A%0A%09%09p_Abstract%3A+%22Learn*%22+OR+%0A%09%09p_Abstract%3A+%22University%22+OR+%0A%09%09p_Abstract%3A+%22College%22+OR+%0A%09%09p_Abstract%3A+%22Teach*%22+OR+%0A%09%09p_Abstract%3A+%22Education%22+OR%0A%0A%09%09p_Author_Terms%3A+%22Learning%22+OR+%0A%09%09p_Author_Terms%3A+%22University%22+OR+%0A%09%09p_Author_Terms%3A+%22Teaching%22+OR+%0A%09%09p_Author_Terms%3A+%22College%22++OR+%0A%09%09p_Author_Terms%3A+%22Education%22+%0A%09%29+%0A%29%29&amp;pageNumber=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">( Title: "Augmented Reality" AND "Benefit*" OR Abstract: "Augmented Reality" AND "Benefit*" OR Keywords: "Augmented Reality" AND "Benefit*") AND  ( ( Title: "University*" OR Title: "College*" OR Title: "School*" OR Title: "Teach*" OR Title: "Learn*" OR Title: "Educat*" ) OR  ( Abstract: "University*" OR Abstract: "College*" OR Abstract: "School*" OR Abstract: "Teach*" OR Abstract: "Learn*" OR Abstract: "Educat*" ) OR ( Keywords: "University*" OR Keywords: "College*" OR Keywords: "School*" OR Keywords: "Teach*" OR Keywords: "Learn*" OR Keywords: "Educat*" ) ) </t>
-  </si>
-  <si>
-    <t>http://www.sciencedirect.com/science?_ob=ArticleListURL&amp;_method=list&amp;_ArticleListID=-561995336&amp;_sort=r&amp;_st=13&amp;view=c&amp;_acct=C000056617&amp;_version=1&amp;_urlVersion=0&amp;_userid=2875156&amp;md5=f16c1117e5b4ad58dedcbaad31c796dc&amp;searchtype=a</t>
-  </si>
-  <si>
-    <t>(("Document Title": "Augmented Reality" AND ("Benefit" OR "Benefits") OR "Abstract": "Augmented Reality" AND ("Benefit" OR "Benefits") OR "Author Keywords": "Augmented Reality" AND ("Benefit" OR "Benefits")) AND ("Document Title": "Learn*" OR "Document Title": "Teach*" OR "Document Title": "University" OR "Document Title": "College" OR "Document Title": "Education" OR "Abstract": "Learn*" OR "Abstract": "University" OR "Abstract": "College" OR "Abstract": "Teach*" OR "Abstract": "Education" OR "Author Keywords": "Learning" OR "Author Keywords": "University" OR "Author Keywords": "Teaching" OR "Author Keywords": "College"  OR "Author Keywords": "Education" ) )</t>
-  </si>
-  <si>
-    <t>http://dl.acm.org/results.cfm?within=%28+%0D%0A%09Title%3A+%22Augmented+Reality%22+AND+%22Benefit*%22+OR+%0D%0A%09Abstract%3A+%22Augmented+Reality%22+AND+%22Benefit*%22+OR+%0D%0A%09Keywords%3A+%22Augmented+Reality%22+AND+%22Benefit*%22%0D%0A%29+%0D%0AAND++%0D%0A%28+%0D%0A%09%28+%0D%0A%09%09Title%3A+%22University*%22+OR+%0D%0A%09%09Title%3A+%22College*%22+OR+%0D%0A%09%09Title%3A+%22School*%22+OR+%0D%0A%09%09Title%3A+%22Teach*%22+OR+%0D%0A%09%09Title%3A+%22Learn*%22+OR+%0D%0A%09%09Title%3A+%22Educat*%22+%0D%0A%09%29+%0D%0A%09OR++%0D%0A%09%28+%0D%0A%09%09Abstract%3A+%22University*%22+OR+%0D%0A%09%09Abstract%3A+%22College*%22+OR+%0D%0A%09%09Abstract%3A+%22School*%22+OR+%0D%0A%09%09Abstract%3A+%22Teach*%22+OR+%0D%0A%09%09Abstract%3A+%22Learn*%22+OR+%0D%0A%09%09Abstract%3A+%22Educat*%22+%0D%0A%09%29+%0D%0A%09OR+%0D%0A%09%28+%0D%0A%09%09Keywords%3A+%22University*%22+OR+%0D%0A%09%09Keywords%3A+%22College*%22+OR+%0D%0A%09%09Keywords%3A+%22School*%22+OR+%0D%0A%09%09Keywords%3A+%22Teach*%22+OR+%0D%0A%09%09Keywords%3A+%22Learn*%22+OR+%0D%0A%09%09Keywords%3A+%22Educat*%22+%0D%0A%09%29+%0D%0A%29+&amp;adv=1&amp;COLL=DL&amp;qrycnt=2223030&amp;DL=ACM&amp;Go.x=37&amp;Go.y=19&amp;termzone=all&amp;allofem=&amp;anyofem=&amp;noneofem=&amp;peoplezone=Name&amp;people=&amp;peoplehow=and&amp;keyword=&amp;keywordhow=AND&amp;affil=&amp;affilhow=AND&amp;pubin=&amp;pubinhow=and&amp;pubby=&amp;pubbyhow=OR&amp;since_year=&amp;before_year=&amp;pubashow=OR&amp;sponsor=&amp;sponsorhow=AND&amp;confdate=&amp;confdatehow=OR&amp;confloc=&amp;conflochow=OR&amp;isbnhow=OR&amp;isbn=&amp;doi=&amp;ccs=&amp;subj=</t>
-  </si>
-  <si>
-    <t>TITLE-ABSTR-KEY("Augmented Reality" AND "Benefit*"("Educat*" OR "Learn*" OR "Teach*" OR "University" OR "College" OR "School"))</t>
+    <t>Artikel insgesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( TI( "Augmented Reality" ) OR AB( "Augmented Reality" ) OR SU( "Augmented Reality" ) ) AND ( TI( "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*" ) OR AB( "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*" ) OR SU( "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*" ) ) AND ( TI( "Benefi*" OR "Advantag*" ) OR AB( "Benefi*" OR "Advantag*" ) OR SU( "Benefi*" OR "Advantag*" ) )</t>
+  </si>
+  <si>
+    <t>http://web.a.ebscohost.com/ehost/resultsadvanced?sid=1e1a4532-aae6-4a24-8b60-423951a57d0c%40sessionmgr4005&amp;vid=4&amp;hid=4212&amp;bquery=TI+%28%22Augmented+Reality%22+AND+%28%22University*%22+OR+%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22%29%29+OR+AB+%28%22Augmented+Reality%22+AND+%28%22University*%22+OR+%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22%29%29+OR+KW+%28%22Augmented+Reality%22+AND+%28%22University*%22+OR+%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22%29%29&amp;bdata=JmRiPWE5aCZkYj1idGgmdHlwZT0xJnNpdGU9ZWhvc3QtbGl2ZQ%3d%3d</t>
+  </si>
+  <si>
+    <t>http://web.b.ebscohost.com/ehost/resultsadvanced?sid=07a54ffd-e3c5-4126-b0f9-8edd79208ade%40sessionmgr111&amp;vid=4&amp;hid=112&amp;bquery=((TI+(%22Augmented+Reality%22)+OR+AB+(%22Augmented+Reality%22)+OR+KW+(%22Augmented+Reality%22))+AND+(TI+(%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22)+OR+AB+(%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22)+OR+KW+(%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22)))&amp;bdata=JmRiPWE5aCZkYj1idGgmdHlwZT0xJnNpdGU9ZWhvc3QtbGl2ZQ%3d%3d</t>
+  </si>
+  <si>
+    <t>TITLE-ABSTR-KEY
+(
+  "Augmented Reality" AND
+  (
+    "Educat*" OR "Learn*" OR "Teach*" OR "College" OR "School"
+  )
+)</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science?_ob=ArticleListURL&amp;_method=list&amp;_ArticleListID=-562491849&amp;_sort=r&amp;_st=13&amp;view=c&amp;_acct=C000056617&amp;_version=1&amp;_urlVersion=0&amp;_userid=2875156&amp;md5=c5671bb7667ec8973de6776dd4c8d267&amp;searchtype=a</t>
+  </si>
+  <si>
+    <t>http://search.proquest.com/results/441BB9A4ACA84A87PQ/1/$5bqueryType$3dcommandline:OS$3b+sortType$3drelevance$3b+searchTerms$3d$5b$3cAND$7call:$28TI$28$22Augmented+Reality$22$29+OR+AB$28$22Augmented+Reality$22$29+OR+SU$28$22Augmented+Reality$22$29$29+AND+$28TI$28$22College*$22+OR+$22School*$22+OR+$22Teach*$22+OR+$22Learn*$22+OR+$22Educat*$22$29+OR+AB$28$22College*$22+OR+$22School*$22+OR+$22Teach*$22+OR+$22Learn*$22+OR+$22Educat*$22$29+OR+SU$28$22College*$22+OR+$22School*$22+OR+$22Teach*$22+OR+$22Learn*$22+OR+$22Educat*$22$29$29$3e$5d$3b+searchParameters$3d$7bNAVIGATORS$3dnavsummarynav,sourcetypenav,pubtitlenav,objecttypenav,languagenav$28filter$3d200$2f0$2f*$29,decadenav$28filter$3d110$2f0$2f*,sort$3dname$2fascending$29,yearnav$28filter$3d1100$2f0$2f*,sort$3dname$2fascending$29,yearmonthnav$28filter$3d120$2f0$2f*,sort$3dname$2fascending$29,monthnav$28sort$3dname$2fascending$29,daynav$28sort$3dname$2fascending$29,+RS$3dOP,+chunkSize$3d20,+instance$3dprod.academic,+ftblock$3d740842+1+199113+113+670831+670829+660845+199000+660843+199001+660840,+removeDuplicates$3dtrue$7d$3b+metaData$3d$7bUsageSearchMode$3dCommandLine,+dbselections$3dallAvailable,+SEARCH_ID_TIMESTAMP$3d1398524603305$7d$5d?accountid=10218</t>
+  </si>
+  <si>
+    <t>(
+ (
+  TI (  
+   "Augmented Reality"
+  ) OR
+  AB (
+   "Augmented Reality"
+  ) OR
+  KW (
+   "Augmented Reality"
+  )
+ )
+ AND
+ (
+  TI (  
+   "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*"
+  ) OR
+  AB (  
+   "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*"
+  ) OR
+  KW (
+   "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*"
+  )
+  )
+ AND
+ (
+  TI (  
+   "Benefi*" OR "Advantag*"
+  ) OR
+  AB (  
+   "Benefi*" OR "Advantag*"
+  ) OR
+  KW (
+   "Benefi*" OR "Advantag*"
+  )
+ )
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 
+ Title: "Augmented Reality" OR 
+ Abstract: "Augmented Reality" OR 
+ Keywords: "Augmented Reality"
+) 
+AND  
+( 
+ ( 
+  Title: "College*" OR 
+  Title: "School*" OR 
+  Title: "Teach*" OR 
+  Title: "Learn*" OR 
+  Title: "Educat*" 
+ ) 
+ OR  
+ ( 
+  Abstract: "College*" OR 
+  Abstract: "School*" OR 
+  Abstract: "Teach*" OR 
+  Abstract: "Learn*" OR 
+  Abstract: "Educat*" 
+ ) 
+ OR 
+ ( 
+  Keywords: "College*" OR 
+  Keywords: "School*" OR 
+  Keywords: "Teach*" OR 
+  Keywords: "Learn*" OR 
+  Keywords: "Educat*" 
+ ) 
+)
+AND
+(
+( 
+  Title: "Benefi*" OR 
+  Title: "Advantag*"  
+ ) 
+ OR  
+ ( 
+  Abstract: "Benefi*" OR 
+  Abstract: "Advantag*" 
+ ) 
+ OR 
+ ( 
+  Keywords: "Benefi*" OR 
+  Keywords: "Advantag*" 
+ ) 
+) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 
+ ( 
+  title:( "Augmented Reality" ) OR 
+  abstract:( "Augmented Reality" ) OR 
+  subject:( "Augmented Reality" ) 
+ ) 
+ AND 
+ ( 
+  title:(
+   "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*" 
+  ) OR 
+  abstract:( 
+   "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*" 
+  ) OR 
+  subject:( 
+   "College*" OR "School*" OR "Teach*" OR "Learn*" OR "Educat*" 
+  )
+  AND 
+  ( 
+  title:(
+   "Benefi*" OR "Advantage*" 
+  ) OR 
+  abstract:( 
+   "Benefi*" OR "Advantage*" 
+  ) OR 
+  subject:( 
+   "Benefi*" OR "Advantage*" 
+  ) 
+ ) 
+) </t>
+  </si>
+  <si>
+    <t>http://aisel.aisnet.org/do/search/?q=(%20%20%20(%20%20%20%20title%3A(%20%22Augmented%20Reality%22%20)%20OR%20%20%20%20abstract%3A(%20%22Augmented%20Reality%22%20)%20OR%20%20%20%20subject%3A(%20%22Augmented%20Reality%22%20)%20%20%20)%20%20%20AND%20%20%20(%20%20%20%20title%3A(%20%20%20%20%22College*%22%20OR%20%22School*%22%20OR%20%22Teach*%22%20OR%20%22Learn*%22%20OR%20%22Educat*%22%20%20%20%20)%20OR%20%20%20%20abstract%3A(%20%20%20%20%20%22College*%22%20OR%20%22School*%22%20OR%20%22Teach*%22%20OR%20%22Learn*%22%20OR%20%22Educat*%22%20%20%20%20)%20OR%20%20%20%20subject%3A(%20%20%20%20%20%22College*%22%20OR%20%22School*%22%20OR%20%22Teach*%22%20OR%20%22Learn*%22%20OR%20%22Educat*%22%20%20%20%20)%20%20%20AND%20%20%20%20(%20%20%20%20title%3A(%20%20%20%20%22Benefi*%22%20OR%20%22Advantage*%22%20%20%20%20)%20OR%20%20%20%20abstract%3A(%20%20%20%20%20%22Benefi*%22%20OR%20%22Advantage*%22%20%20%20%20)%20OR%20%20%20%20subject%3A(%20%20%20%20%20%22Benefi*%22%20OR%20%22Advantage*%22%20%20%20%20)%20%20%20)%20%20)%20&amp;start=0&amp;context=509156</t>
+  </si>
+  <si>
+    <t>(
+ (
+  "Document Title": "Augmented Reality" OR
+  "Abstract": "Augmented Reality" OR 
+  "Author Keywords": "Augmented Reality"
+ ) AND 
+ (
+  "Document Title": "School" OR 
+  "Document Title": "College" OR 
+  "Document Title": "Learn*" OR 
+  "Document Title": "Teach*" OR 
+  "Document Title": "Educat*" OR 
+  "Abstract": "School" OR 
+  "Abstract": "College" OR 
+  "Abstract": "Learn*" OR 
+  "Abstract": "Teach*" OR 
+  "Abstract": "Educat*" OR
+  "Author Keywords": "School" OR 
+  "Author Keywords": "College" OR 
+  "Author Keywords": "Learn*" OR 
+  "Author Keywords": "Teach*" OR 
+  "Author Keywords": "Educat*" 
+ ) AND 
+ (
+  "Document Title": "Benefi*" OR 
+  "Document Title": "Advantage*" OR 
+  "Abstract": "Benefi*" OR 
+  "Abstract": "Advantage*" OR 
+  "Author Keywords": "Benefi*" OR 
+  "Author Keywords": "Advantage*" 
+ ) 
+)</t>
+  </si>
+  <si>
+    <t>Aufgesplittet in 9 Queries: Immer "Augmented Reality", dann iterierend Titel: "Education" AND Titel: "Benefits", danach Titel: "Education" AND Abstract: "Benefits" und so weiter</t>
   </si>
 </sst>
 </file>
@@ -159,19 +299,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="12">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -517,7 +679,7 @@
     <col min="6" max="6" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -536,127 +698,111 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1">
+        <f>SUM(D:D)</f>
+        <v>878</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" ht="75">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>378</v>
+      </c>
+      <c r="E2" s="2">
+        <v>41755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>189</v>
+      </c>
+      <c r="E3" s="2">
+        <v>41750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>186</v>
+      </c>
+      <c r="E4" s="2">
+        <v>41750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>41747</v>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>41755</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:8" ht="409">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41755</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2">
-        <v>41747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>41747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2">
-        <v>41747</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>41747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2">
-        <v>41747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>41747</v>
+        <v>41750</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Keyword_Search_mitBenefits.xlsx
+++ b/Documentation/Keyword_Search_mitBenefits.xlsx
@@ -67,18 +67,6 @@
   </si>
   <si>
     <t>http://web.b.ebscohost.com/ehost/resultsadvanced?sid=07a54ffd-e3c5-4126-b0f9-8edd79208ade%40sessionmgr111&amp;vid=4&amp;hid=112&amp;bquery=((TI+(%22Augmented+Reality%22)+OR+AB+(%22Augmented+Reality%22)+OR+KW+(%22Augmented+Reality%22))+AND+(TI+(%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22)+OR+AB+(%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22)+OR+KW+(%22College*%22+OR+%22School*%22+OR+%22Teach*%22+OR+%22Learn*%22+OR+%22Educat*%22)))&amp;bdata=JmRiPWE5aCZkYj1idGgmdHlwZT0xJnNpdGU9ZWhvc3QtbGl2ZQ%3d%3d</t>
-  </si>
-  <si>
-    <t>TITLE-ABSTR-KEY
-(
-  "Augmented Reality" AND
-  (
-    "Educat*" OR "Learn*" OR "Teach*" OR "College" OR "School"
-  )
-)</t>
-  </si>
-  <si>
-    <t>http://www.sciencedirect.com/science?_ob=ArticleListURL&amp;_method=list&amp;_ArticleListID=-562491849&amp;_sort=r&amp;_st=13&amp;view=c&amp;_acct=C000056617&amp;_version=1&amp;_urlVersion=0&amp;_userid=2875156&amp;md5=c5671bb7667ec8973de6776dd4c8d267&amp;searchtype=a</t>
   </si>
   <si>
     <t>http://search.proquest.com/results/441BB9A4ACA84A87PQ/1/$5bqueryType$3dcommandline:OS$3b+sortType$3drelevance$3b+searchTerms$3d$5b$3cAND$7call:$28TI$28$22Augmented+Reality$22$29+OR+AB$28$22Augmented+Reality$22$29+OR+SU$28$22Augmented+Reality$22$29$29+AND+$28TI$28$22College*$22+OR+$22School*$22+OR+$22Teach*$22+OR+$22Learn*$22+OR+$22Educat*$22$29+OR+AB$28$22College*$22+OR+$22School*$22+OR+$22Teach*$22+OR+$22Learn*$22+OR+$22Educat*$22$29+OR+SU$28$22College*$22+OR+$22School*$22+OR+$22Teach*$22+OR+$22Learn*$22+OR+$22Educat*$22$29$29$3e$5d$3b+searchParameters$3d$7bNAVIGATORS$3dnavsummarynav,sourcetypenav,pubtitlenav,objecttypenav,languagenav$28filter$3d200$2f0$2f*$29,decadenav$28filter$3d110$2f0$2f*,sort$3dname$2fascending$29,yearnav$28filter$3d1100$2f0$2f*,sort$3dname$2fascending$29,yearmonthnav$28filter$3d120$2f0$2f*,sort$3dname$2fascending$29,monthnav$28sort$3dname$2fascending$29,daynav$28sort$3dname$2fascending$29,+RS$3dOP,+chunkSize$3d20,+instance$3dprod.academic,+ftblock$3d740842+1+199113+113+670831+670829+660845+199000+660843+199001+660840,+removeDuplicates$3dtrue$7d$3b+metaData$3d$7bUsageSearchMode$3dCommandLine,+dbselections$3dallAvailable,+SEARCH_ID_TIMESTAMP$3d1398524603305$7d$5d?accountid=10218</t>
@@ -243,6 +231,17 @@
   </si>
   <si>
     <t>Aufgesplittet in 9 Queries: Immer "Augmented Reality", dann iterierend Titel: "Education" AND Titel: "Benefits", danach Titel: "Education" AND Abstract: "Benefits" und so weiter</t>
+  </si>
+  <si>
+    <t>TITLE-ABSTR-KEY
+(
+  "Augmented Reality" AND
+  ( "Educat*" OR "Learn*" OR "Teach*" OR "College" OR "School" ) AND
+  ( "Benefi*" OR "Advantage*" )
+)</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science?_ob=ArticleListURL&amp;_method=list&amp;_ArticleListID=-566850176&amp;_sort=r&amp;_st=4&amp;_acct=C000056617&amp;_version=1&amp;_urlVersion=0&amp;_userid=2875156&amp;md5=5f2f5a57e59bc085617b941a48e47735&amp;searchtype=a</t>
   </si>
 </sst>
 </file>
@@ -299,11 +298,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -322,7 +328,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="19">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
@@ -332,6 +338,13 @@
     <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -665,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -700,7 +713,7 @@
       </c>
       <c r="G1" s="1">
         <f>SUM(D:D)</f>
-        <v>878</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -714,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>41755</v>
@@ -728,13 +741,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
         <v>41750</v>
@@ -745,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
         <v>41750</v>
@@ -762,10 +775,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -779,13 +792,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>41755</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="120">
@@ -793,16 +809,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
-        <v>41750</v>
+        <v>41755</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Keyword_Search_mitBenefits.xlsx
+++ b/Documentation/Keyword_Search_mitBenefits.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16125" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -329,28 +329,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -678,21 +683,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="74.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="74.125" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -713,13 +718,13 @@
       </c>
       <c r="G1" s="1">
         <f>SUM(D:D)</f>
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75">
+    <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -736,7 +741,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -747,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
         <v>41750</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -770,7 +775,7 @@
         <v>41750</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -787,7 +792,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -804,7 +809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="120">
+    <row r="7" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
